--- a/DataBackups/4.xlsx
+++ b/DataBackups/4.xlsx
@@ -413,14 +413,303 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Will</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Date:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Winner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Loser</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Scorer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>W-Streak</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L-Streak</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nick</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Loose Gooses</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Will</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wet Willies</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DataBackups/4.xlsx
+++ b/DataBackups/4.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,14 +481,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,14 +577,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -673,14 +673,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>5 Musketeers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Loose Gooses</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5 Musketeers</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
